--- a/doc/TIRT_Foundly.xlsx
+++ b/doc/TIRT_Foundly.xlsx
@@ -916,7 +916,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10">
-        <v>74.0</v>
+        <v>15.0</v>
       </c>
       <c r="K3" s="11">
         <v>0.0</v>
